--- a/1) Ноябрь/915/915 Разработка моб приложений_ноябрь.xlsx
+++ b/1) Ноябрь/915/915 Разработка моб приложений_ноябрь.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\1) Ноябрь\915\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD729CE-8885-4C76-83DA-A2027B23B91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6785390F-A8E6-4E62-ABFD-B6BFF54EEA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="49">
   <si>
     <t>ФИО</t>
   </si>
@@ -144,25 +144,34 @@
     <t>Фатхутдинова Раиля Раймановна</t>
   </si>
   <si>
-    <t>Тема 1</t>
-  </si>
-  <si>
     <t>Практика 3</t>
   </si>
   <si>
-    <t>Тема 2</t>
-  </si>
-  <si>
-    <t>Практика 4</t>
-  </si>
-  <si>
-    <t>Тема 3</t>
-  </si>
-  <si>
-    <t>Практика 5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Практика 1.1</t>
+  </si>
+  <si>
+    <t>Практика 1.2</t>
+  </si>
+  <si>
+    <t>Лекция 1.1</t>
+  </si>
+  <si>
+    <t>Лекция 1.2</t>
+  </si>
+  <si>
+    <t>Лекция 1.3</t>
+  </si>
+  <si>
+    <t>Практика 2.3</t>
+  </si>
+  <si>
+    <t>Практика 2.4</t>
+  </si>
+  <si>
+    <t>Практика 2.5</t>
   </si>
 </sst>
 </file>
@@ -574,7 +583,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +596,16 @@
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1402,58 +1420,58 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N28" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O28" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="S28" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -1467,7 +1485,7 @@
         <v>34</v>
       </c>
       <c r="R29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -1477,7 +1495,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
